--- a/prolog/docs/PLR.xlsx
+++ b/prolog/docs/PLR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\Arithmetic-Sequence-Puzzles\prolog\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7DDE03-3214-4366-B5AF-89043304E621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0412CAB-273A-4464-9B5E-675B21C75968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6285" windowWidth="29040" windowHeight="15720" xr2:uid="{4B57DDAC-4CAB-46A2-9D3A-337FB76C15B8}"/>
   </bookViews>
@@ -36,137 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
-  <si>
-    <t>Depth-first</t>
-  </si>
-  <si>
-    <t>Restart</t>
-  </si>
-  <si>
-    <t>Multi-point</t>
-  </si>
-  <si>
-    <t>Iterative-diving</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
   <si>
     <t>4x4</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>SEARCH TYPES (time/s)</t>
-  </si>
-  <si>
-    <t>0.11s</t>
-  </si>
-  <si>
-    <t>0.08s</t>
-  </si>
-  <si>
-    <t>0.35s</t>
-  </si>
-  <si>
     <t>5x5</t>
   </si>
   <si>
-    <t>0.06s</t>
-  </si>
-  <si>
-    <t>0.38s</t>
-  </si>
-  <si>
-    <t>0.32s</t>
-  </si>
-  <si>
-    <t>0.09s</t>
-  </si>
-  <si>
-    <t>0.42s</t>
-  </si>
-  <si>
-    <t>0.33s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As we can see the best search type is </t>
-  </si>
-  <si>
-    <t>the iterative-diving so we will use this search type</t>
-  </si>
-  <si>
-    <t>to evaluate the rest of variable and value selection</t>
-  </si>
-  <si>
-    <t>0.07s</t>
-  </si>
-  <si>
-    <t>0.10s</t>
-  </si>
-  <si>
-    <t>0.36s</t>
-  </si>
-  <si>
-    <t>0.30s</t>
-  </si>
-  <si>
-    <t>0.29s</t>
-  </si>
-  <si>
-    <t>0.39s</t>
-  </si>
-  <si>
-    <t>VALUE SELECTION (time/s)</t>
-  </si>
-  <si>
-    <t>selectSmallest(eval)</t>
-  </si>
-  <si>
-    <t>cp.factory.value()</t>
-  </si>
-  <si>
-    <t>cp.factory.valueImpact()</t>
-  </si>
-  <si>
-    <t>cp.factory.valueSuccessRate()</t>
-  </si>
-  <si>
-    <t>selectLargest(eval)</t>
-  </si>
-  <si>
-    <t>0.37s</t>
-  </si>
-  <si>
-    <t>2 &amp; 4</t>
-  </si>
-  <si>
-    <t>2 &amp; 3</t>
-  </si>
-  <si>
-    <t>1 &amp; 3</t>
-  </si>
-  <si>
-    <t>1 &amp; 4</t>
-  </si>
-  <si>
-    <t>time(s)</t>
-  </si>
-  <si>
-    <t>0.23s</t>
-  </si>
-  <si>
     <t>6x6</t>
   </si>
   <si>
     <t>7x7</t>
   </si>
   <si>
-    <t>0.13s</t>
-  </si>
-  <si>
-    <t>0.84s</t>
-  </si>
-  <si>
     <t>Variable Ordering (time/s)</t>
   </si>
   <si>
@@ -372,6 +255,87 @@
   </si>
   <si>
     <t>5,308s</t>
+  </si>
+  <si>
+    <t>Var Order</t>
+  </si>
+  <si>
+    <t>Var Selection</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>bisect</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>7x7 Puzzle</t>
+  </si>
+  <si>
+    <t>more than 370s</t>
+  </si>
+  <si>
+    <t>63,135s</t>
+  </si>
+  <si>
+    <t>2,238s</t>
+  </si>
+  <si>
+    <t>82,782s</t>
+  </si>
+  <si>
+    <t>166,464s</t>
+  </si>
+  <si>
+    <t>5,658s</t>
+  </si>
+  <si>
+    <t>5,597s</t>
+  </si>
+  <si>
+    <t>5,636s</t>
+  </si>
+  <si>
+    <t>12,031s</t>
+  </si>
+  <si>
+    <t>12,116s</t>
+  </si>
+  <si>
+    <t>227,353s</t>
+  </si>
+  <si>
+    <t>289,519s</t>
+  </si>
+  <si>
+    <t>135,608s</t>
+  </si>
+  <si>
+    <t>228,374s</t>
+  </si>
+  <si>
+    <t>105,235s</t>
+  </si>
+  <si>
+    <t>292,435s</t>
+  </si>
+  <si>
+    <t>311,006s</t>
+  </si>
+  <si>
+    <t>206,980s</t>
+  </si>
+  <si>
+    <t>204,424s</t>
   </si>
 </sst>
 </file>
@@ -404,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +390,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,50 +463,76 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,17 +847,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9FEE61-5911-43AC-AA68-68D3589900C2}">
-  <dimension ref="B2:S62"/>
+  <dimension ref="B2:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="6" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
@@ -861,673 +870,1055 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="M11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="13" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>40</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="M13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="M14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" t="s">
-        <v>14</v>
-      </c>
-      <c r="S14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>63</v>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="M15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" t="s">
-        <v>14</v>
-      </c>
-      <c r="S15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
-      <c r="M16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="16"/>
+      <c r="C26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
+      <c r="C32" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
+      <c r="C33" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="29"/>
+      <c r="C44" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="29"/>
+      <c r="C45" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="29"/>
+      <c r="C46" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="29"/>
+      <c r="C47" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="29"/>
+      <c r="C49" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="29"/>
+      <c r="C50" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="36"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="29"/>
+      <c r="C51" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="29"/>
+      <c r="C52" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="D52" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="29"/>
+      <c r="C54" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="29"/>
+      <c r="C55" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="29"/>
+      <c r="C56" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="29"/>
+      <c r="C57" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="29"/>
+      <c r="C59" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="29"/>
+      <c r="C60" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="29"/>
+      <c r="C61" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="29"/>
+      <c r="C62" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="29"/>
+      <c r="C64" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="29"/>
+      <c r="C65" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="29"/>
+      <c r="C66" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="29"/>
+      <c r="C67" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="29"/>
+      <c r="C69" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="29"/>
+      <c r="C70" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="29"/>
+      <c r="C71" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="29"/>
+      <c r="C72" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="20"/>
-      <c r="C46" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="21"/>
-      <c r="C47" s="25" t="s">
+      <c r="C73" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="29"/>
+      <c r="C74" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="29"/>
+      <c r="C75" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="21"/>
-      <c r="C48" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="29"/>
+      <c r="C76" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="21"/>
-      <c r="C49" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="29"/>
+      <c r="C77" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="24"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="21"/>
-      <c r="C50" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="29"/>
+      <c r="C79" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="29"/>
+      <c r="C80" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="29"/>
+      <c r="C81" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="29"/>
+      <c r="C82" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="29"/>
+      <c r="C84" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="29"/>
+      <c r="C85" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="29"/>
+      <c r="C86" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="29"/>
+      <c r="C87" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" s="24"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="21"/>
-      <c r="C51" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="30"/>
+      <c r="C89" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="24"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="18"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="18"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="18"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="20"/>
-      <c r="C57" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="23"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="21"/>
-      <c r="C58" s="25" t="s">
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="30"/>
+      <c r="C90" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="21"/>
-      <c r="C59" s="25" t="s">
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="30"/>
+      <c r="C91" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" s="24"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="21"/>
-      <c r="C60" s="7" t="s">
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="30"/>
+      <c r="C92" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="24"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="21"/>
-      <c r="C61" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="24"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="21"/>
-      <c r="C62" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="24"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B55:G55"/>
+  <mergeCells count="14">
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B29:G29"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B43:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1535,20 +1926,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="79788a03-4d00-4199-b0e8-365c4f85c308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="79788a03-4d00-4199-b0e8-365c4f85c308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1729,6 +2120,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF47662-8880-414B-8A8B-33CB7FEC8684}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{603AC85E-7049-4179-BEDC-3C0A45022EC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="79788a03-4d00-4199-b0e8-365c4f85c308"/>
@@ -1741,14 +2140,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF47662-8880-414B-8A8B-33CB7FEC8684}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/prolog/docs/PLR.xlsx
+++ b/prolog/docs/PLR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\Arithmetic-Sequence-Puzzles\prolog\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/689975324ed070ad/Área de Trabalho/Arithmetic-Sequence-Puzzles/prolog/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0412CAB-273A-4464-9B5E-675B21C75968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{C0412CAB-273A-4464-9B5E-675B21C75968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0730FBF-BEED-4564-AA30-2BA5A93C8EA4}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6285" windowWidth="29040" windowHeight="15720" xr2:uid="{4B57DDAC-4CAB-46A2-9D3A-337FB76C15B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4B57DDAC-4CAB-46A2-9D3A-337FB76C15B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="103">
   <si>
     <t>4x4</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>204,424s</t>
+  </si>
+  <si>
+    <t>148,354s</t>
+  </si>
+  <si>
+    <t>All Combinations, test in one single 7x7 puzzle</t>
+  </si>
+  <si>
+    <t>354,525s</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,43 +505,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9FEE61-5911-43AC-AA68-68D3589900C2}">
   <dimension ref="B2:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77:H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,20 +859,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="10"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
@@ -1097,14 +1086,14 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -1193,26 +1182,24 @@
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
@@ -1292,619 +1279,656 @@
       </c>
       <c r="F36" s="19"/>
     </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+    </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="29"/>
-      <c r="C44" s="31" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
-      <c r="C45" s="31" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
+      <c r="D45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="29"/>
-      <c r="C46" s="31" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
+      <c r="D46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="31" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="28"/>
+      <c r="D47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="29"/>
-      <c r="C49" s="31" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="31" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
-      <c r="C51" s="31" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="29"/>
-      <c r="C52" s="31" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="31" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="29"/>
-      <c r="C55" s="31" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="29"/>
-      <c r="C56" s="31" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
-      <c r="C57" s="31" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="31" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="31" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="29"/>
-      <c r="C61" s="31" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="29"/>
-      <c r="C62" s="31" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="29"/>
-      <c r="C64" s="31" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="29"/>
-      <c r="C65" s="31" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="29"/>
-      <c r="C66" s="31" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="29"/>
-      <c r="C67" s="31" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="29"/>
-      <c r="C69" s="31" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="29"/>
-      <c r="C70" s="31" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="29"/>
-      <c r="C71" s="31" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="29"/>
-      <c r="C72" s="31" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-      <c r="C74" s="31" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-      <c r="C75" s="31" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="29"/>
-      <c r="C76" s="31" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-      <c r="C77" s="31" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="29"/>
-      <c r="C79" s="31" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
+      <c r="D79" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-      <c r="C80" s="31" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
+      <c r="D80" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-      <c r="C81" s="31" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
+      <c r="D81" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-      <c r="C82" s="31" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
+      <c r="D82" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
+      <c r="D83" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-      <c r="C84" s="31" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
+      <c r="D84" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-      <c r="C85" s="31" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
+      <c r="D85" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-      <c r="C86" s="31" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
+      <c r="D86" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-      <c r="C87" s="31" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
+      <c r="D87" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
-      <c r="C89" s="31" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="30"/>
-      <c r="C90" s="31" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="30"/>
-      <c r="C91" s="31" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="30"/>
-      <c r="C92" s="31" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="B78:B82"/>
     <mergeCell ref="B83:B87"/>
@@ -1914,11 +1938,6 @@
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="B63:B67"/>
     <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B43:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1926,20 +1945,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="79788a03-4d00-4199-b0e8-365c4f85c308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="79788a03-4d00-4199-b0e8-365c4f85c308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2120,14 +2139,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF47662-8880-414B-8A8B-33CB7FEC8684}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{603AC85E-7049-4179-BEDC-3C0A45022EC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="79788a03-4d00-4199-b0e8-365c4f85c308"/>
@@ -2140,6 +2151,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF47662-8880-414B-8A8B-33CB7FEC8684}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
